--- a/static/file/导入教师模板.xlsx
+++ b/static/file/导入教师模板.xlsx
@@ -19,13 +19,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>用户名(必要)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号(必要)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名(必要)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州科技大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅启明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13962133011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,9 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -361,25 +387,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
